--- a/data/trans_dic/P39A5_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,46; 85,48</t>
+          <t>78,63; 85,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83,32; 87,46</t>
+          <t>83,31; 87,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,38; 86,08</t>
+          <t>82,21; 86,0</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>86,84; 90,09</t>
+          <t>86,7; 90,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,9; 89,34</t>
+          <t>84,67; 89,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,4; 89,02</t>
+          <t>86,42; 89,23</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,26; 93,6</t>
+          <t>89,3; 93,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,31; 90,7</t>
+          <t>86,24; 90,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,54; 91,52</t>
+          <t>88,76; 91,75</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>86,95; 89,43</t>
+          <t>87,01; 89,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,74; 88,61</t>
+          <t>85,5; 88,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,64; 88,57</t>
+          <t>86,61; 88,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A5_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,63; 85,49</t>
+          <t>78,46; 85,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83,31; 87,42</t>
+          <t>83,32; 87,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,21; 86,0</t>
+          <t>82,38; 86,08</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>86,7; 90,03</t>
+          <t>86,84; 90,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,67; 89,21</t>
+          <t>84,9; 89,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,42; 89,23</t>
+          <t>86,4; 89,02</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,3; 93,6</t>
+          <t>89,26; 93,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,24; 90,47</t>
+          <t>86,31; 90,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,76; 91,75</t>
+          <t>88,54; 91,52</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,01; 89,53</t>
+          <t>86,95; 89,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,5; 88,47</t>
+          <t>85,74; 88,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,61; 88,52</t>
+          <t>86,64; 88,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A5_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>82,18%</t>
+          <t>80,88%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>85,59%</t>
+          <t>84,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>84,23%</t>
+          <t>83,24%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,46; 85,48</t>
+          <t>76,72; 84,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83,32; 87,46</t>
+          <t>82,5; 86,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,38; 86,08</t>
+          <t>81,15; 85,19</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>88,46%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>87,05%</t>
+          <t>84,67%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>86,74%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>86,84; 90,09</t>
+          <t>86,46; 92,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,9; 89,34</t>
+          <t>74,59; 88,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,4; 89,02</t>
+          <t>82,06; 89,26</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>91,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>88,69%</t>
+          <t>88,24%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>90,16%</t>
+          <t>89,77%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,26; 93,6</t>
+          <t>88,7; 93,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,31; 90,7</t>
+          <t>85,98; 90,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,54; 91,52</t>
+          <t>88,06; 91,11</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>88,24%</t>
+          <t>88,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>87,09%</t>
+          <t>85,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>87,63%</t>
+          <t>86,77%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>86,95; 89,43</t>
+          <t>86,77; 91,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,74; 88,61</t>
+          <t>79,36; 87,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,64; 88,57</t>
+          <t>83,68; 88,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A5_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,72; 84,46</t>
+          <t>76,96; 84,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>82,5; 86,78</t>
+          <t>82,52; 86,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>81,15; 85,19</t>
+          <t>81,01; 85,15</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>86,46; 92,19</t>
+          <t>86,64; 92,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,59; 88,64</t>
+          <t>74,37; 88,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,06; 89,26</t>
+          <t>81,37; 89,2</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>88,7; 93,32</t>
+          <t>88,87; 93,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,98; 90,29</t>
+          <t>85,88; 90,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,06; 91,11</t>
+          <t>88,12; 91,28</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>86,77; 91,4</t>
+          <t>86,59; 90,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,36; 87,95</t>
+          <t>78,31; 88,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83,68; 88,57</t>
+          <t>83,78; 88,63</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sí diría que estar con dificultad para respirar es un síntoma de que a alguien le está dando un ataque al corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>956</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1408</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>345287</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>518792</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>864079</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>328529; 360360</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>504302; 531541</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>840895; 883919</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1627</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2364</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1908973</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1769264</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3678237</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1863285; 1992393</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1554082; 1851100</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3450485; 3782570</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>857</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1444</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>568644</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>566727</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1135371</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>553122; 581580</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>551580; 580453</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1114396; 1154436</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2666</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4177</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6843</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2822904</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2854783</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5677687</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2770874; 2910483</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2617883; 2942587</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5481857; 5799179</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>